--- a/BI_Lab_2/Book1.xlsx
+++ b/BI_Lab_2/Book1.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mohamed\ITI\ITI-Tasks\BI_Lab_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68DD92C9-F80C-4CD5-94AD-1F65C43705C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DA1D27-55DE-4394-946E-DEC06C13BC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A3B8E913-7BDE-40C9-97DA-CEC79F573B2B}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId2"/>
+    <pivotCache cacheId="7" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Qty</t>
   </si>
@@ -74,6 +74,18 @@
   </si>
   <si>
     <t>Sportswear</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Total Qty</t>
+  </si>
+  <si>
+    <t>Total QtyKPI Goal</t>
+  </si>
+  <si>
+    <t>Total QtyKPI Status</t>
   </si>
 </sst>
 </file>
@@ -557,16 +569,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -813,6 +822,510 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -825,11 +1338,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>tmp98D3!$B$1</c:f>
+              <c:f>tmp98D3!$B$1:$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Qty</c:v>
+                  <c:v>Qty - Customer1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -845,95 +1358,34 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>tmp98D3!$A$2:$A$26</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="20"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Accesories</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Books</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Clothing</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Commponents</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Sportswear</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Accesories</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Books</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Clothing</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Commponents</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Sportswear</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Accesories</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Books</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Clothing</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Commponents</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Sportswear</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Accesories</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Books</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Clothing</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Commponents</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>Sportswear</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Customer1</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Customer2</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Customer3</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Customer4</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>tmp98D3!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Accesories</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Books</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Commponents</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sportswear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tmp98D3!$B$2:$B$26</c:f>
+              <c:f>tmp98D3!$B$4:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -948,48 +1400,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1005,11 +1415,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>tmp98D3!$C$1</c:f>
+              <c:f>tmp98D3!$C$1:$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>QtyKPI Goal</c:v>
+                  <c:v>Qty - Customer2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1025,154 +1435,48 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>tmp98D3!$A$2:$A$26</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="20"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Accesories</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Books</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Clothing</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Commponents</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Sportswear</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Accesories</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Books</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Clothing</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Commponents</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Sportswear</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Accesories</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Books</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Clothing</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Commponents</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Sportswear</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Accesories</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Books</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Clothing</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Commponents</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>Sportswear</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Customer1</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Customer2</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Customer3</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Customer4</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>tmp98D3!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Accesories</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Books</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Commponents</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sportswear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tmp98D3!$C$2:$C$26</c:f>
+              <c:f>tmp98D3!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1000</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1188,11 +1492,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>tmp98D3!$D$1</c:f>
+              <c:f>tmp98D3!$D$1:$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>QtyKPI Status</c:v>
+                  <c:v>Qty - Customer3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1208,154 +1512,48 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>tmp98D3!$A$2:$A$26</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="20"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Accesories</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Books</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Clothing</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Commponents</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Sportswear</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Accesories</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Books</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Clothing</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Commponents</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Sportswear</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Accesories</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Books</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Clothing</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Commponents</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Sportswear</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Accesories</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Books</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Clothing</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Commponents</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>Sportswear</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Customer1</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Customer2</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Customer3</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Customer4</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>tmp98D3!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Accesories</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Books</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Commponents</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sportswear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tmp98D3!$D$2:$D$26</c:f>
+              <c:f>tmp98D3!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-1</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-1</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1363,6 +1561,708 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C3E0-42E8-BE8D-67DBD3B53148}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmp98D3!$E$1:$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Qty - Customer4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>tmp98D3!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Accesories</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Books</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Commponents</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sportswear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmp98D3!$E$4:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-20FC-4A55-B7E2-2A34041A427F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmp98D3!$F$1:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QtyKPI Goal - Customer1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>tmp98D3!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Accesories</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Books</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Commponents</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sportswear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmp98D3!$F$4:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-20FC-4A55-B7E2-2A34041A427F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmp98D3!$G$1:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QtyKPI Goal - Customer2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>tmp98D3!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Accesories</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Books</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Commponents</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sportswear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmp98D3!$G$4:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-20FC-4A55-B7E2-2A34041A427F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmp98D3!$H$1:$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QtyKPI Goal - Customer3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>tmp98D3!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Accesories</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Books</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Commponents</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sportswear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmp98D3!$H$4:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-20FC-4A55-B7E2-2A34041A427F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmp98D3!$I$1:$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QtyKPI Goal - Customer4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>tmp98D3!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Accesories</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Books</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Commponents</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sportswear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmp98D3!$I$4:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-20FC-4A55-B7E2-2A34041A427F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmp98D3!$J$1:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QtyKPI Status - Customer1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>tmp98D3!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Accesories</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Books</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Commponents</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sportswear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmp98D3!$J$4:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-20FC-4A55-B7E2-2A34041A427F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmp98D3!$K$1:$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QtyKPI Status - Customer2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>tmp98D3!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Accesories</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Books</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Commponents</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sportswear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmp98D3!$K$4:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-20FC-4A55-B7E2-2A34041A427F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmp98D3!$L$1:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QtyKPI Status - Customer3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>tmp98D3!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Accesories</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Books</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Commponents</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sportswear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmp98D3!$L$4:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-20FC-4A55-B7E2-2A34041A427F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmp98D3!$M$1:$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QtyKPI Status - Customer4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>tmp98D3!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Accesories</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Books</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Commponents</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sportswear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmp98D3!$M$4:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-20FC-4A55-B7E2-2A34041A427F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1809,6 +2709,1368 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="28"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="29"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="30"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="31"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="32"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="33"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="34"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="35"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="36"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="37"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="38"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="39"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="40"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="41"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="42"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="43"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="44"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="45"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="46"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="47"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="48"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="49"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="50"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="51"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="52"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="53"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="54"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="55"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="56"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="57"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="58"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="59"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="60"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="61"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="62"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="63"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="64"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="65"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="66"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="67"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="68"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="69"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="70"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="71"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1819,11 +4081,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>tmp98D3!$B$1</c:f>
+              <c:f>tmp98D3!$B$1:$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Qty</c:v>
+                  <c:v>Qty - Customer1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1842,6 +4104,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1857,6 +4124,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1872,6 +4144,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1887,6 +4164,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1902,6 +4184,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1917,6 +4204,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1934,6 +4226,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1951,6 +4248,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -1968,6 +4270,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -1985,6 +4292,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -2002,6 +4314,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -2019,6 +4336,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -2037,6 +4359,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -2055,6 +4382,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
@@ -2073,6 +4405,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
@@ -2091,6 +4428,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="16"/>
@@ -2109,6 +4451,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="17"/>
@@ -2127,6 +4474,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="18"/>
@@ -2144,6 +4496,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="19"/>
@@ -2161,97 +4518,41 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>tmp98D3!$A$2:$A$26</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="20"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Accesories</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Books</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Clothing</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Commponents</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Sportswear</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Accesories</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Books</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Clothing</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Commponents</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Sportswear</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Accesories</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Books</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Clothing</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Commponents</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Sportswear</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Accesories</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Books</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Clothing</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Commponents</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>Sportswear</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Customer1</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Customer2</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Customer3</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Customer4</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>tmp98D3!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Accesories</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Books</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Commponents</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sportswear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tmp98D3!$B$2:$B$26</c:f>
+              <c:f>tmp98D3!$B$4:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -2266,48 +4567,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2323,11 +4582,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>tmp98D3!$C$1</c:f>
+              <c:f>tmp98D3!$C$1:$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>QtyKPI Goal</c:v>
+                  <c:v>Qty - Customer2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2346,6 +4605,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2361,6 +4625,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2376,6 +4645,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2391,6 +4665,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002F-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2406,6 +4685,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000031-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -2421,6 +4705,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000033-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -2438,6 +4727,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000035-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -2455,6 +4749,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000037-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -2472,6 +4771,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000039-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -2489,6 +4793,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003B-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -2506,6 +4815,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003D-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -2523,6 +4837,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003F-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -2541,6 +4860,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000041-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -2559,6 +4883,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000043-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
@@ -2577,6 +4906,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000045-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
@@ -2595,6 +4929,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000047-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="16"/>
@@ -2613,6 +4952,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000049-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="17"/>
@@ -2631,6 +4975,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004B-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="18"/>
@@ -2648,6 +4997,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004D-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="19"/>
@@ -2665,156 +5019,55 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004F-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>tmp98D3!$A$2:$A$26</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="20"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Accesories</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Books</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Clothing</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Commponents</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Sportswear</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Accesories</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Books</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Clothing</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Commponents</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Sportswear</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Accesories</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Books</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Clothing</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Commponents</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Sportswear</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Accesories</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Books</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Clothing</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Commponents</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>Sportswear</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Customer1</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Customer2</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Customer3</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Customer4</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>tmp98D3!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Accesories</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Books</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Commponents</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sportswear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tmp98D3!$C$2:$C$26</c:f>
+              <c:f>tmp98D3!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1000</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2830,11 +5083,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>tmp98D3!$D$1</c:f>
+              <c:f>tmp98D3!$D$1:$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>QtyKPI Status</c:v>
+                  <c:v>Qty - Customer3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2853,6 +5106,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000051-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2868,6 +5126,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000053-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2883,6 +5146,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000055-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2898,6 +5166,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000057-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2913,6 +5186,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000059-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -2928,6 +5206,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005B-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -2945,6 +5228,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005D-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -2962,6 +5250,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005F-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -2979,6 +5272,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000061-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -2996,6 +5294,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000063-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -3013,6 +5316,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000065-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -3030,6 +5338,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000067-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -3048,6 +5361,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000069-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -3066,6 +5384,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006B-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
@@ -3084,6 +5407,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006D-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
@@ -3102,6 +5430,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006F-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="16"/>
@@ -3120,6 +5453,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000071-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="17"/>
@@ -3138,6 +5476,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000073-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="18"/>
@@ -3155,6 +5498,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000075-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="19"/>
@@ -3172,156 +5520,55 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000077-1516-46B7-9C1B-6B79AE15C4EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>tmp98D3!$A$2:$A$26</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="20"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Accesories</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Books</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Clothing</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Commponents</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Sportswear</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Accesories</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Books</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Clothing</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Commponents</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Sportswear</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Accesories</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Books</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Clothing</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Commponents</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Sportswear</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Accesories</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Books</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Clothing</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Commponents</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>Sportswear</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Customer1</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Customer2</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Customer3</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Customer4</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>tmp98D3!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Accesories</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Books</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Commponents</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sportswear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tmp98D3!$D$2:$D$26</c:f>
+              <c:f>tmp98D3!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-1</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-1</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3329,6 +5576,1281 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-BEFD-458B-B7CB-5C7D8DA3FC5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmp98D3!$E$1:$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Qty - Customer4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>tmp98D3!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Accesories</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Books</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Commponents</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sportswear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmp98D3!$E$4:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000078-1516-46B7-9C1B-6B79AE15C4EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmp98D3!$F$1:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QtyKPI Goal - Customer1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>tmp98D3!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Accesories</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Books</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Commponents</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sportswear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmp98D3!$F$4:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000079-1516-46B7-9C1B-6B79AE15C4EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmp98D3!$G$1:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QtyKPI Goal - Customer2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>tmp98D3!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Accesories</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Books</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Commponents</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sportswear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmp98D3!$G$4:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000007A-1516-46B7-9C1B-6B79AE15C4EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmp98D3!$H$1:$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QtyKPI Goal - Customer3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>tmp98D3!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Accesories</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Books</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Commponents</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sportswear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmp98D3!$H$4:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000007B-1516-46B7-9C1B-6B79AE15C4EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmp98D3!$I$1:$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QtyKPI Goal - Customer4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>tmp98D3!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Accesories</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Books</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Commponents</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sportswear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmp98D3!$I$4:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000007C-1516-46B7-9C1B-6B79AE15C4EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmp98D3!$J$1:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QtyKPI Status - Customer1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>tmp98D3!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Accesories</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Books</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Commponents</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sportswear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmp98D3!$J$4:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000007D-1516-46B7-9C1B-6B79AE15C4EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmp98D3!$K$1:$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QtyKPI Status - Customer2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>tmp98D3!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Accesories</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Books</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Commponents</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sportswear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmp98D3!$K$4:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000007E-1516-46B7-9C1B-6B79AE15C4EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmp98D3!$L$1:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QtyKPI Status - Customer3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>tmp98D3!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Accesories</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Books</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Commponents</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sportswear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmp98D3!$L$4:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000007F-1516-46B7-9C1B-6B79AE15C4EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmp98D3!$M$1:$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QtyKPI Status - Customer4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>tmp98D3!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Accesories</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Books</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Commponents</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sportswear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmp98D3!$M$4:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000080-1516-46B7-9C1B-6B79AE15C4EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4548,16 +8070,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>769620</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4584,15 +8106,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>64770</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4622,20 +8144,12 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Help-Desk" refreshedDate="45700.385585185184" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{9B02CAAB-9EF2-4AA3-9E46-53C18E6ECAB8}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Help-Desk" refreshedDate="45700.787851157409" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{9B02CAAB-9EF2-4AA3-9E46-53C18E6ECAB8}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="5">
     <cacheField name="[Measures].[Qty]" caption="Qty" numFmtId="0" hierarchy="9" level="32767"/>
     <cacheField name="[Measures].[QtyKPI Goal]" caption="QtyKPI (Goal)" numFmtId="0" hierarchy="13" level="32767"/>
     <cacheField name="[Measures].[QtyKPI Status]" caption="QtyKPI (Status)" numFmtId="0" hierarchy="14" level="32767"/>
-    <cacheField name="[Customer Dim].[Customer Name].[Customer Name]" caption="Customer Name" numFmtId="0" hierarchy="2" level="1">
-      <sharedItems count="4">
-        <s v="[Customer Dim].[Customer Name].&amp;[Customer1]" c="Customer1"/>
-        <s v="[Customer Dim].[Customer Name].&amp;[Customer2]" c="Customer2"/>
-        <s v="[Customer Dim].[Customer Name].&amp;[Customer3]" c="Customer3"/>
-        <s v="[Customer Dim].[Customer Name].&amp;[Customer4]" c="Customer4"/>
-      </sharedItems>
-    </cacheField>
     <cacheField name="[Product Dim 1].[Product Name].[Product Name]" caption="Product Name" numFmtId="0" hierarchy="5" level="1">
       <sharedItems count="5">
         <s v="[Product Dim 1].[Product Name].&amp;[Accesories]" c="Accesories"/>
@@ -4645,6 +8159,14 @@
         <s v="[Product Dim 1].[Product Name].&amp;[Sportswear]" c="Sportswear"/>
       </sharedItems>
     </cacheField>
+    <cacheField name="[Customer Dim].[Customer Name].[Customer Name]" caption="Customer Name" numFmtId="0" hierarchy="2" level="1">
+      <sharedItems count="4">
+        <s v="[Customer Dim].[Customer Name].&amp;[Customer1]" c="Customer1"/>
+        <s v="[Customer Dim].[Customer Name].&amp;[Customer2]" c="Customer2"/>
+        <s v="[Customer Dim].[Customer Name].&amp;[Customer3]" c="Customer3"/>
+        <s v="[Customer Dim].[Customer Name].&amp;[Customer4]" c="Customer4"/>
+      </sharedItems>
+    </cacheField>
   </cacheFields>
   <cacheHierarchies count="15">
     <cacheHierarchy uniqueName="[Customer Dim].[Customer Address]" caption="Customer Address" attribute="1" defaultMemberUniqueName="[Customer Dim].[Customer Address].[All]" allUniqueName="[Customer Dim].[Customer Address].[All]" dimensionUniqueName="[Customer Dim]" displayFolder="" count="0" unbalanced="0"/>
@@ -4652,7 +8174,7 @@
     <cacheHierarchy uniqueName="[Customer Dim].[Customer Name]" caption="Customer Name" attribute="1" defaultMemberUniqueName="[Customer Dim].[Customer Name].[All]" allUniqueName="[Customer Dim].[Customer Name].[All]" dimensionUniqueName="[Customer Dim]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="3"/>
+        <fieldUsage x="4"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Product Dim 1].[Product Category]" caption="Product Category" attribute="1" defaultMemberUniqueName="[Product Dim 1].[Product Category].[All]" allUniqueName="[Product Dim 1].[Product Category].[All]" dimensionUniqueName="[Product Dim 1]" displayFolder="" count="0" unbalanced="0"/>
@@ -4660,7 +8182,7 @@
     <cacheHierarchy uniqueName="[Product Dim 1].[Product Name]" caption="Product Name" attribute="1" defaultMemberUniqueName="[Product Dim 1].[Product Name].[All]" allUniqueName="[Product Dim 1].[Product Name].[All]" dimensionUniqueName="[Product Dim 1]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="4"/>
+        <fieldUsage x="3"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Time Dim 1].[Calendar Quarter]" caption="Calendar Quarter" attribute="1" defaultMemberUniqueName="[Time Dim 1].[Calendar Quarter].[All]" allUniqueName="[Time Dim 1].[Calendar Quarter].[All]" dimensionUniqueName="[Time Dim 1]" displayFolder="" count="0" unbalanced="0"/>
@@ -4711,20 +8233,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{512D4536-FF50-46EE-B1BF-8DFC7A08737D}" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" fieldListSortAscending="1">
-  <location ref="A1:D26" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{512D4536-FF50-46EE-B1BF-8DFC7A08737D}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" fieldListSortAscending="1">
+  <location ref="A1:P9" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-      </items>
-    </pivotField>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
       <items count="5">
         <item x="0"/>
@@ -4734,16 +8248,45 @@
         <item x="4"/>
       </items>
     </pivotField>
+    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="1">
     <field x="3"/>
-    <field x="4"/>
   </rowFields>
-  <rowItems count="25">
+  <rowItems count="6">
     <i>
       <x/>
     </i>
-    <i r="1">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="-2"/>
+    <field x="4"/>
+  </colFields>
+  <colItems count="15">
+    <i>
+      <x/>
       <x/>
     </i>
     <i r="1">
@@ -4755,78 +8298,39 @@
     <i r="1">
       <x v="3"/>
     </i>
-    <i r="1">
-      <x v="4"/>
+    <i i="1">
+      <x v="1"/>
+      <x/>
     </i>
-    <i>
+    <i r="1" i="1">
       <x v="1"/>
     </i>
-    <i r="1">
+    <i r="1" i="1">
+      <x v="2"/>
+    </i>
+    <i r="1" i="1">
+      <x v="3"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
       <x/>
     </i>
-    <i r="1">
+    <i r="1" i="2">
       <x v="1"/>
     </i>
-    <i r="1">
+    <i r="1" i="2">
       <x v="2"/>
     </i>
-    <i r="1">
+    <i r="1" i="2">
       <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
     </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
+    <i t="grand" i="1">
       <x v="1"/>
     </i>
-    <i i="2">
+    <i t="grand" i="2">
       <x v="2"/>
     </i>
   </colItems>
@@ -4848,7 +8352,7 @@
       </pivotAreas>
     </conditionalFormat>
   </conditionalFormats>
-  <chartFormats count="6">
+  <chartFormats count="24">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -4903,6 +8407,222 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="3" format="63" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="64" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="65" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="66" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="67" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="68" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="69" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="70" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="71" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotHierarchies count="16">
     <pivotHierarchy/>
@@ -4923,12 +8643,12 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragOff="0"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="2">
-    <rowHierarchyUsage hierarchyUsage="2"/>
+  <rowHierarchiesUsage count="1">
     <rowHierarchyUsage hierarchyUsage="5"/>
   </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
+  <colHierarchiesUsage count="2">
     <colHierarchyUsage hierarchyUsage="-2"/>
+    <colHierarchyUsage hierarchyUsage="2"/>
   </colHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -5238,375 +8958,395 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C735C57D-DC61-47B8-A7DD-E25DD5961668}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>100</v>
+      </c>
+      <c r="C4" s="3">
+        <v>130</v>
+      </c>
+      <c r="D4" s="3">
+        <v>55</v>
+      </c>
+      <c r="E4" s="3">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>305</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P4" s="3">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1">
-        <v>100</v>
-      </c>
-      <c r="C3" s="1">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3">
+        <v>60</v>
+      </c>
+      <c r="C5" s="3">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3">
+        <v>55</v>
+      </c>
+      <c r="E5" s="3">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3">
         <v>1000</v>
       </c>
-      <c r="D3" s="1">
+      <c r="G5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="3">
         <v>-1</v>
       </c>
+      <c r="K5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>155</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P5" s="3">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3">
+        <v>105</v>
+      </c>
+      <c r="D6" s="3">
+        <v>50</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="3">
+        <v>185</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P6" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3">
         <v>10</v>
       </c>
-      <c r="B4" s="1">
+      <c r="D7" s="3">
         <v>60</v>
       </c>
-      <c r="C4" s="1">
+      <c r="E7" s="3">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3">
         <v>1000</v>
       </c>
-      <c r="D4" s="1">
+      <c r="G7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J7" s="3">
         <v>-1</v>
       </c>
+      <c r="K7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N7" s="3">
+        <v>115</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P7" s="3">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>50</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3">
         <v>30</v>
       </c>
-      <c r="C5" s="1">
+      <c r="E8" s="3">
+        <v>40</v>
+      </c>
+      <c r="F8" s="3">
         <v>1000</v>
       </c>
-      <c r="D5" s="1">
+      <c r="G8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J8" s="3">
         <v>-1</v>
       </c>
+      <c r="K8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>130</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P8" s="3">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>260</v>
+      </c>
+      <c r="C9" s="3">
+        <v>275</v>
+      </c>
+      <c r="D9" s="3">
+        <v>250</v>
+      </c>
+      <c r="E9" s="3">
+        <v>105</v>
+      </c>
+      <c r="F9" s="3">
         <v>1000</v>
       </c>
-      <c r="D6" s="1">
+      <c r="G9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J9" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1">
-        <v>50</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="K9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="3">
+        <v>890</v>
+      </c>
+      <c r="O9" s="3">
         <v>1000</v>
       </c>
-      <c r="D7" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
-        <v>130</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D9" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D10" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1">
-        <v>105</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D11" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D12" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D13" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1">
-        <v>55</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D15" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="1">
-        <v>55</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D16" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="1">
-        <v>50</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D17" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="1">
-        <v>60</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D18" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="1">
-        <v>30</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D19" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="1">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D21" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="1">
-        <v>20</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D22" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D23" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="1">
-        <v>25</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D24" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="1">
-        <v>40</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D25" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="1">
-        <v>890</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="P9" s="3">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting pivot="1" sqref="D2:D26">
+  <conditionalFormatting pivot="1" sqref="J4:M9 P4:P9">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Signs" showValue="0">
         <cfvo type="num" val="-1"/>
